--- a/A-开发相关文档素材/5.其他文档/APP功能进度.xlsx
+++ b/A-开发相关文档素材/5.其他文档/APP功能进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>功能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,64 @@
   </si>
   <si>
     <t>html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据范围未确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.标准是否定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.返回今天未选中今天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.ios时间选择问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击切换 年份不能切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.后台缺少标签子表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.讯飞语料缺失
+2.页面样式缺失
+3.mq处理逻辑待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对应样式未设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能未定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.无对应设计图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,11 +446,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -401,6 +461,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,13 +799,17 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="8"/>
+    <col min="7" max="7" width="28.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -725,22 +819,22 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -751,32 +845,83 @@
       <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="15" t="s">
         <v>21</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="5"/>
-      <c r="C3" t="s">
+      <c r="C3" s="15" t="s">
         <v>22</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="5"/>
-      <c r="C4" t="s">
+      <c r="C4" s="15" t="s">
         <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" s="5"/>
-      <c r="C5" t="s">
+      <c r="C5" s="15" t="s">
         <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
-      <c r="C6" t="s">
+      <c r="C6" s="15" t="s">
         <v>25</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -786,50 +931,131 @@
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="15" t="s">
         <v>44</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="6"/>
-      <c r="C8" t="s">
+      <c r="C8" s="15" t="s">
         <v>45</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="6"/>
-      <c r="C9" t="s">
+      <c r="C9" s="15" t="s">
         <v>46</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="6"/>
-      <c r="C10" t="s">
+      <c r="C10" s="15" t="s">
         <v>47</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="6"/>
-      <c r="C11" t="s">
+      <c r="C11" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="6"/>
-      <c r="C12" t="s">
+      <c r="C12" s="15" t="s">
         <v>49</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="6"/>
-      <c r="C13" t="s">
+      <c r="C13" s="15" t="s">
         <v>50</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
-      <c r="C14" t="s">
+      <c r="C14" s="15" t="s">
         <v>51</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -839,8 +1065,17 @@
       <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="15" t="s">
         <v>27</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -850,233 +1085,557 @@
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
+      <c r="D16" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C17" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
+      <c r="D18" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C19" s="15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
+      <c r="D19" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C20" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
+      <c r="D20" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C21" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
+      <c r="D22" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C23" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
+      <c r="D23" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C24" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
+      <c r="D25" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
+      <c r="D26" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C27" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="15" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
+      <c r="D28" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C29" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
+      <c r="D29" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C30" s="15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
+      <c r="D30" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C31" s="15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
+      <c r="D32" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C33" s="15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>11</v>
       </c>
       <c r="B35" t="s">
         <v>61</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
+      <c r="D35" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C36" s="15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C37" t="s">
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C37" s="15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C38" t="s">
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C38" s="15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C39" t="s">
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C39" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C40" t="s">
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C40" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C41" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C42" t="s">
+      <c r="D41" s="9">
+        <v>0</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C42" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D42" s="9">
+        <v>0</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>12</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D43" s="9">
+        <v>0</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>13</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>14</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>15</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D46" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>16</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D47" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>17</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D48" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>18</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/5.其他文档/APP功能进度.xlsx
+++ b/A-开发相关文档素材/5.其他文档/APP功能进度.xlsx
@@ -446,20 +446,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -491,6 +481,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,42 +798,42 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="8"/>
-    <col min="7" max="7" width="28.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="28.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -842,85 +841,85 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="5"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="5"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="D4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="5">
         <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="5"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E5" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="5">
         <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="E6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -928,133 +927,133 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <v>0.5</v>
       </c>
-      <c r="E7" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="6"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>0.1</v>
       </c>
-      <c r="E8" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="6"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>0.5</v>
       </c>
-      <c r="E9" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="E9" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="6"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>0</v>
       </c>
-      <c r="E10" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="6"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="6"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="6"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="D13" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1062,19 +1061,19 @@
       <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="D15" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F15" s="5">
         <v>0.9</v>
       </c>
     </row>
@@ -1082,33 +1081,33 @@
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="D16" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F16" s="5">
         <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="D17" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F17" s="5">
         <v>0.9</v>
       </c>
     </row>
@@ -1116,64 +1115,64 @@
       <c r="A18">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="D18" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="D19" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="D20" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="H21" s="11" t="s">
+      <c r="D21" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1181,47 +1180,47 @@
       <c r="A22">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="D22" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="D23" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="D24" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1229,47 +1228,47 @@
       <c r="A25">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="D25" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="D26" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="D27" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1277,61 +1276,61 @@
       <c r="A28">
         <v>8</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="D28" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="D29" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="D30" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="D31" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1339,33 +1338,33 @@
       <c r="A32">
         <v>9</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="D32" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="D33" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1373,16 +1372,16 @@
       <c r="A34">
         <v>10</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="D34" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1390,120 +1389,120 @@
       <c r="A35">
         <v>11</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="F35" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="H35" s="12" t="s">
+      <c r="D35" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="5">
         <v>0</v>
       </c>
-      <c r="E36" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="F36" s="9">
+      <c r="E36" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F36" s="5">
         <v>0.6</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="5">
         <v>0</v>
       </c>
-      <c r="E37" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="F37" s="9">
+      <c r="E37" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F37" s="5">
         <v>0.6</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="5">
         <v>0</v>
       </c>
-      <c r="E38" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="F38" s="9">
+      <c r="E38" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F38" s="5">
         <v>0.6</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="5">
         <v>0</v>
       </c>
-      <c r="E39" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="F39" s="9">
+      <c r="E39" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F39" s="5">
         <v>0.6</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="5">
         <v>0</v>
       </c>
-      <c r="E40" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="F40" s="9">
+      <c r="E40" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F40" s="5">
         <v>0.6</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="5">
         <v>0</v>
       </c>
-      <c r="E41" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="F41" s="9">
+      <c r="E41" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F41" s="5">
         <v>0.6</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="5">
         <v>0</v>
       </c>
-      <c r="E42" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="F42" s="9">
+      <c r="E42" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F42" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1511,19 +1510,19 @@
       <c r="A43">
         <v>12</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="5">
         <v>0</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="5">
         <v>0</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="5">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1531,19 +1530,19 @@
       <c r="A44">
         <v>13</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="5">
         <v>0</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="5">
         <v>0.3</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="5">
         <v>0.5</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1551,19 +1550,19 @@
       <c r="A45">
         <v>14</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="5">
         <v>0</v>
       </c>
-      <c r="E45" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F45" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="E45" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1571,16 +1570,16 @@
       <c r="A46">
         <v>15</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="5">
         <v>0.5</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="5">
         <v>0.4</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1588,16 +1587,16 @@
       <c r="A47">
         <v>16</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F47" s="8" t="s">
+      <c r="D47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1605,19 +1604,19 @@
       <c r="A48">
         <v>17</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="5">
         <v>0.4</v>
       </c>
-      <c r="E48" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="E48" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1625,16 +1624,16 @@
       <c r="A49">
         <v>18</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="E49" s="9">
+      <c r="D49" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E49" s="5">
         <v>0.3</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="4" t="s">
         <v>68</v>
       </c>
     </row>

--- a/A-开发相关文档素材/5.其他文档/APP功能进度.xlsx
+++ b/A-开发相关文档素材/5.其他文档/APP功能进度.xlsx
@@ -798,8 +798,8 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1540,7 +1540,7 @@
         <v>0.3</v>
       </c>
       <c r="F44" s="5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>77</v>

--- a/A-开发相关文档素材/5.其他文档/APP功能进度.xlsx
+++ b/A-开发相关文档素材/5.其他文档/APP功能进度.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="完成度" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
   <si>
     <t>功能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日程提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系统设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本地添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邀请推送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,15 +292,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.标准是否定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.返回今天未选中今天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.ios时间选择问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -334,15 +318,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">1.标准是否定义
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本地日历不读取
+及时读取</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器数据不全（需要讨论）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS日历时间格式化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.打开短信
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.ios时间选择问题
+2.年的选择
+3.新增事件的表示
+4.红点数据验证（消除）
+5.长按新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆拦截</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.本地联系读取
+2.联网匹配
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待讨论内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.无对应设计图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统的alarm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,8 +427,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +453,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -482,6 +565,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -490,6 +576,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,7 +682,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,10 +714,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,7 +748,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -794,15 +923,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="C47:G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="11" bestFit="1" customWidth="1"/>
@@ -811,7 +940,7 @@
     <col min="8" max="8" width="23.625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -822,116 +951,125 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.5">
+      <c r="B3" s="15"/>
+      <c r="C3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="15"/>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="15"/>
+      <c r="C5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="14"/>
-      <c r="C3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1">
+      <c r="B6" s="15"/>
+      <c r="C6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="14"/>
-      <c r="C4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="14"/>
-      <c r="C5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:8" ht="81" customHeight="1">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5">
         <v>0.5</v>
@@ -940,16 +1078,16 @@
         <v>0.7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="16"/>
       <c r="C8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5">
         <v>0.1</v>
@@ -958,13 +1096,16 @@
         <v>0.7</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="16"/>
       <c r="C9" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5">
         <v>0.5</v>
@@ -973,80 +1114,80 @@
         <v>0.7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="15"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="16"/>
       <c r="C10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="16"/>
+      <c r="C11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="15"/>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="16"/>
+      <c r="C12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="15"/>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="16"/>
+      <c r="C13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="15"/>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="16"/>
+      <c r="C14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="15"/>
-      <c r="C14" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="D14" s="5">
         <v>0.6</v>
       </c>
@@ -1054,19 +1195,19 @@
         <v>0.7</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="27">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="D15" s="5">
         <v>0.9</v>
       </c>
@@ -1076,175 +1217,178 @@
       <c r="F15" s="5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G15" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="C17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="13"/>
+      <c r="C18" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D19" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="C20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C19" s="11" t="s">
+      <c r="D20" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="C21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C20" s="11" t="s">
+      <c r="D21" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="C22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C21" s="11" t="s">
+      <c r="D22" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D23" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C23" s="11" t="s">
+      <c r="D24" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C24" s="11" t="s">
+      <c r="D25" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>7</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C26" s="11" t="s">
         <v>41</v>
       </c>
@@ -1255,12 +1399,12 @@
         <v>0.7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="C27" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D27" s="5">
         <v>0.6</v>
@@ -1269,162 +1413,166 @@
         <v>0.7</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="C28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
         <v>8</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="D29" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="40.5">
+      <c r="C30" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="E30" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="C31" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C29" s="11" t="s">
+      <c r="D31" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="C32" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C30" s="11" t="s">
+      <c r="D32" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C31" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>9</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="D33" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="C34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D34" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C33" s="11" t="s">
+      <c r="D35" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="40.5">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>10</v>
-      </c>
-      <c r="B34" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>11</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="D36" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="C37" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C37" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="D37" s="5">
         <v>0</v>
@@ -1436,9 +1584,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="C38" s="11" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D38" s="5">
         <v>0</v>
@@ -1450,9 +1598,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="C39" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="5">
         <v>0</v>
@@ -1464,9 +1612,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="C40" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="5">
         <v>0</v>
@@ -1478,9 +1626,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="C41" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="5">
         <v>0</v>
@@ -1492,9 +1640,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="C42" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" s="5">
         <v>0</v>
@@ -1506,135 +1654,177 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>12</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>9</v>
+    <row r="43" spans="1:8">
+      <c r="C43" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D43" s="5">
         <v>0</v>
       </c>
       <c r="E43" s="5">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F43" s="5">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" s="5">
         <v>0</v>
       </c>
       <c r="E44" s="5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F44" s="5">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="5">
         <v>0</v>
       </c>
-      <c r="E45" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F45" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E45" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="F45" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
         <v>15</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B47" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>17</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>18</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E46" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>16</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>17</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="E48" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>18</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="E49" s="5">
+      <c r="D51" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E51" s="5">
         <v>0.3</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>68</v>
+      <c r="F51" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/5.其他文档/APP功能进度.xlsx
+++ b/A-开发相关文档素材/5.其他文档/APP功能进度.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="完成度" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
   <si>
     <t>功能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,12 +400,40 @@
     <t>系统的alarm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>联系人搜索全是未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程发布存在有的机子上无法发布的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步通讯录权限初始化获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步数据仅同步参与人数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客数据留存本地，后来登陆账号同步后上传数据。该数据所属id信息未更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断网时第一次打开APP就导致app无法使用了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人中 自己如何添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +597,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -576,51 +650,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,7 +711,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -714,9 +743,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -748,6 +778,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -923,15 +954,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G47" sqref="C47:G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="11" bestFit="1" customWidth="1"/>
@@ -940,7 +971,7 @@
     <col min="8" max="8" width="23.625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -966,11 +997,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -985,33 +1016,33 @@
       <c r="F2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="40.5">
-      <c r="B3" s="15"/>
-      <c r="C3" s="20" t="s">
+    <row r="3" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="30"/>
+      <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="22" t="s">
+      <c r="D3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="15"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="30"/>
       <c r="C4" s="11" t="s">
         <v>22</v>
       </c>
@@ -1025,8 +1056,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="15"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="30"/>
       <c r="C5" s="11" t="s">
         <v>23</v>
       </c>
@@ -1040,8 +1071,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="15"/>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="30"/>
       <c r="C6" s="11" t="s">
         <v>24</v>
       </c>
@@ -1054,18 +1085,18 @@
       <c r="F6" s="5">
         <v>0.7</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="14" t="s">
         <v>76</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="81" customHeight="1">
+    <row r="7" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -1080,12 +1111,12 @@
       <c r="F7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="16"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="31"/>
       <c r="C8" s="11" t="s">
         <v>44</v>
       </c>
@@ -1098,12 +1129,12 @@
       <c r="F8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="16"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="31"/>
       <c r="C9" s="11" t="s">
         <v>45</v>
       </c>
@@ -1120,8 +1151,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="16"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="31"/>
       <c r="C10" s="11" t="s">
         <v>46</v>
       </c>
@@ -1135,8 +1166,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="16"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="31"/>
       <c r="C11" s="11" t="s">
         <v>47</v>
       </c>
@@ -1150,8 +1181,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="16"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="31"/>
       <c r="C12" s="11" t="s">
         <v>48</v>
       </c>
@@ -1165,8 +1196,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="16"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="31"/>
       <c r="C13" s="11" t="s">
         <v>49</v>
       </c>
@@ -1183,8 +1214,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="16"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="31"/>
       <c r="C14" s="11" t="s">
         <v>50</v>
       </c>
@@ -1198,7 +1229,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="27">
+    <row r="15" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1221,7 +1252,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1241,7 +1272,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C17" s="11" t="s">
         <v>29</v>
       </c>
@@ -1255,21 +1286,21 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="13"/>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="22">
         <v>0</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="22">
         <v>0</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="F18" s="22"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1289,7 +1320,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C20" s="11" t="s">
         <v>32</v>
       </c>
@@ -1303,7 +1334,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C21" s="11" t="s">
         <v>33</v>
       </c>
@@ -1317,7 +1348,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C22" s="11" t="s">
         <v>34</v>
       </c>
@@ -1334,7 +1365,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1354,7 +1385,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C24" s="11" t="s">
         <v>37</v>
       </c>
@@ -1368,7 +1399,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C25" s="11" t="s">
         <v>38</v>
       </c>
@@ -1382,7 +1413,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1402,7 +1433,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C27" s="11" t="s">
         <v>40</v>
       </c>
@@ -1416,7 +1447,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C28" s="11" t="s">
         <v>42</v>
       </c>
@@ -1430,7 +1461,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>8</v>
       </c>
@@ -1450,25 +1481,25 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="40.5">
-      <c r="C30" s="24" t="s">
+    <row r="30" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C30" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="E30" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="F30" s="26" t="s">
+      <c r="D30" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="E30" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="F30" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="29"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C31" s="11" t="s">
         <v>53</v>
       </c>
@@ -1482,7 +1513,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C32" s="11" t="s">
         <v>54</v>
       </c>
@@ -1496,7 +1527,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>9</v>
       </c>
@@ -1516,7 +1547,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C34" s="11" t="s">
         <v>57</v>
       </c>
@@ -1530,7 +1561,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>10</v>
       </c>
@@ -1547,7 +1578,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="40.5">
+    <row r="36" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>11</v>
       </c>
@@ -1570,7 +1601,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C37" s="11" t="s">
         <v>61</v>
       </c>
@@ -1584,7 +1615,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C38" s="11" t="s">
         <v>62</v>
       </c>
@@ -1598,7 +1629,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C39" s="11" t="s">
         <v>4</v>
       </c>
@@ -1612,7 +1643,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C40" s="11" t="s">
         <v>5</v>
       </c>
@@ -1626,7 +1657,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C41" s="11" t="s">
         <v>6</v>
       </c>
@@ -1640,7 +1671,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C42" s="11" t="s">
         <v>7</v>
       </c>
@@ -1654,7 +1685,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C43" s="11" t="s">
         <v>8</v>
       </c>
@@ -1668,7 +1699,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>12</v>
       </c>
@@ -1688,7 +1719,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>13</v>
       </c>
@@ -1698,17 +1729,17 @@
       <c r="D45" s="5">
         <v>0</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="27">
         <v>0.3</v>
       </c>
-      <c r="F45" s="30">
-        <v>0.6</v>
-      </c>
-      <c r="G45" s="31" t="s">
+      <c r="F45" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="G45" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>14</v>
       </c>
@@ -1728,49 +1759,49 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>15</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="25">
+      <c r="C47" s="21"/>
+      <c r="D47" s="22">
         <v>0.5</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="22">
         <v>0.4</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G47" s="28" t="s">
+      <c r="G47" s="25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>15</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25">
+      <c r="C48" s="21"/>
+      <c r="D48" s="22">
         <v>0.5</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="22">
         <v>0.4</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G48" s="28" t="s">
+      <c r="G48" s="25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>16</v>
       </c>
@@ -1787,7 +1818,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>17</v>
       </c>
@@ -1803,11 +1834,11 @@
       <c r="F50" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>18</v>
       </c>
@@ -1823,7 +1854,7 @@
       <c r="F51" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1836,4 +1867,56 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>